--- a/src/main/java/com/ashok/testData/PeoplesData.xlsx
+++ b/src/main/java/com/ashok/testData/PeoplesData.xlsx
@@ -995,10 +995,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,143 +1328,142 @@
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>8467891230</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>560003</v>
       </c>
     </row>
@@ -1482,31 +1480,31 @@
           <x14:formula1>
             <xm:f>List!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D7 D9 D11 D13:D14 F40:F50 F17:F22 D16 B8:Q8</xm:sqref>
+          <xm:sqref>D40:D50 D17:D22 B8:L8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F7 F9 F11 F13:F14 H40:H50 F23:F39 H17:H22 F16 B10:Q10</xm:sqref>
+          <xm:sqref>F40:F50 D23:D39 F17:F22 B10:L10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H7 H9 H11 H13:H14 J40:J50 H23:H39 J17:J22 H16 B12:Q12</xm:sqref>
+          <xm:sqref>H40:H50 F23:F39 H17:H22 B12:L12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$E$2:$E$251</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K7 K9 K11 K13:K14 M40:M50 K23:K39 M17:M22 K16 B15:Q15</xm:sqref>
+          <xm:sqref>F9 F11 F13:F14 K40:K50 I23:I39 K17:K22 F16 F2:F7 B15:L15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:Q1</xm:sqref>
+          <xm:sqref>B1:L1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1530,7 +1528,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>293</v>
       </c>
       <c r="B1" t="s">
@@ -1538,7 +1536,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>289</v>
       </c>
       <c r="B2" t="s">
@@ -1546,7 +1544,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>290</v>
       </c>
       <c r="B3" t="s">
@@ -1554,7 +1552,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
